--- a/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/SerbianDistributionKeys.xlsx
+++ b/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/SerbianDistributionKeys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="429">
   <si>
     <t>АКТИВА</t>
   </si>
@@ -1442,9 +1442,6 @@
     <t>Goes to</t>
   </si>
   <si>
-    <t>taken with minus from the 48 sum</t>
-  </si>
-  <si>
     <t>remains without distribution</t>
   </si>
   <si>
@@ -1470,6 +1467,24 @@
   </si>
   <si>
     <t>Control Net income/net loss for the year, 94</t>
+  </si>
+  <si>
+    <t>Sign-може да е само "-". Ако няма нищо се счита за "+"</t>
+  </si>
+  <si>
+    <t>Ако ще изброяваш няколко колони го прави със запетайки в колоната "Goes To". Пример: 35,67</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>60, 62</t>
+  </si>
+  <si>
+    <t>52, 54</t>
+  </si>
+  <si>
+    <t>72, 74</t>
   </si>
 </sst>
 </file>
@@ -1829,19 +1844,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D141"/>
+  <dimension ref="A2:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1849,8 +1865,11 @@
       <c r="C2" s="5" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1859,7 +1878,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1868,7 +1887,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +1896,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1899,7 +1918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +1929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1921,7 +1940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1932,7 +1951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1952,7 +1971,7 @@
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1963,7 +1982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1974,7 +1993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1985,7 +2004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -2607,7 +2626,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,7 +2692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>150</v>
       </c>
@@ -2684,7 +2703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>151</v>
       </c>
@@ -2695,7 +2714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>152</v>
       </c>
@@ -2706,7 +2725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>153</v>
       </c>
@@ -2717,7 +2736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>154</v>
       </c>
@@ -2728,7 +2747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>155</v>
       </c>
@@ -2739,7 +2758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>156</v>
       </c>
@@ -2749,11 +2768,8 @@
       <c r="C87" s="5">
         <v>49</v>
       </c>
-      <c r="D87" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>157</v>
       </c>
@@ -2764,7 +2780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>158</v>
       </c>
@@ -2775,7 +2791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>159</v>
       </c>
@@ -2786,7 +2802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>160</v>
       </c>
@@ -2797,7 +2813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>161</v>
       </c>
@@ -2808,7 +2824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>162</v>
       </c>
@@ -2819,7 +2835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>163</v>
       </c>
@@ -2830,7 +2846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>164</v>
       </c>
@@ -2838,11 +2854,11 @@
         <v>188</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>165</v>
       </c>
@@ -2850,11 +2866,11 @@
         <v>189</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>166</v>
       </c>
@@ -2865,10 +2881,10 @@
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>167</v>
       </c>
@@ -2879,10 +2895,10 @@
         <v>53</v>
       </c>
       <c r="D98" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>168</v>
       </c>
@@ -2890,11 +2906,11 @@
         <v>192</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>169</v>
       </c>
@@ -2903,7 +2919,7 @@
       </c>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>194</v>
       </c>
@@ -2912,7 +2928,7 @@
       </c>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>195</v>
       </c>
@@ -2923,7 +2939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>196</v>
       </c>
@@ -2934,7 +2950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>197</v>
       </c>
@@ -2945,7 +2961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>198</v>
       </c>
@@ -2956,7 +2972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>199</v>
       </c>
@@ -2967,7 +2983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>200</v>
       </c>
@@ -2978,7 +2994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>201</v>
       </c>
@@ -2987,7 +3003,7 @@
       </c>
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>202</v>
       </c>
@@ -2998,7 +3014,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>203</v>
       </c>
@@ -3009,7 +3025,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>204</v>
       </c>
@@ -3020,7 +3036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>205</v>
       </c>
@@ -3201,7 +3217,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>244</v>
       </c>
@@ -3212,7 +3228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>245</v>
       </c>
@@ -3223,7 +3239,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>246</v>
       </c>
@@ -3234,7 +3250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>247</v>
       </c>
@@ -3245,7 +3261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>248</v>
       </c>
@@ -3256,7 +3272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>249</v>
       </c>
@@ -3267,7 +3283,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>250</v>
       </c>
@@ -3278,7 +3294,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>251</v>
       </c>
@@ -3289,7 +3305,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>252</v>
       </c>
@@ -3300,7 +3316,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>253</v>
       </c>
@@ -3311,7 +3327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>254</v>
       </c>
@@ -3320,7 +3336,7 @@
       </c>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>255</v>
       </c>
@@ -3329,7 +3345,7 @@
       </c>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>256</v>
       </c>
@@ -3337,8 +3353,8 @@
         <v>273</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" t="s">
-        <v>415</v>
+      <c r="E141" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3349,32 +3365,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:C75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="5" max="5" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>275</v>
       </c>
@@ -3383,7 +3406,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>276</v>
       </c>
@@ -3392,7 +3415,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>277</v>
       </c>
@@ -3403,7 +3426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>278</v>
       </c>
@@ -3414,7 +3437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>279</v>
       </c>
@@ -3425,7 +3448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>280</v>
       </c>
@@ -3436,7 +3459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>281</v>
       </c>
@@ -3447,7 +3470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>282</v>
       </c>
@@ -3458,7 +3481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>283</v>
       </c>
@@ -3467,7 +3490,7 @@
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>284</v>
       </c>
@@ -3478,7 +3501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>285</v>
       </c>
@@ -3489,7 +3512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>286</v>
       </c>
@@ -3500,7 +3523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>287</v>
       </c>
@@ -3511,7 +3534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>288</v>
       </c>
@@ -3522,7 +3545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>289</v>
       </c>
@@ -3533,7 +3556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>290</v>
       </c>
@@ -3544,7 +3567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>291</v>
       </c>
@@ -3555,19 +3578,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>304</v>
       </c>
@@ -3576,7 +3599,7 @@
       </c>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>305</v>
       </c>
@@ -3587,10 +3610,13 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E23" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>306</v>
       </c>
@@ -3601,7 +3627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>307</v>
       </c>
@@ -3612,7 +3638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>308</v>
       </c>
@@ -3623,10 +3649,13 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>309</v>
       </c>
@@ -3637,10 +3666,13 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>310</v>
       </c>
@@ -3651,10 +3683,13 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>311</v>
       </c>
@@ -3665,10 +3700,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>312</v>
       </c>
@@ -3679,10 +3717,13 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>313</v>
       </c>
@@ -3693,10 +3734,13 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E31" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>314</v>
       </c>
@@ -3707,10 +3751,13 @@
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>315</v>
       </c>
@@ -3721,10 +3768,13 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>316</v>
       </c>
@@ -3732,11 +3782,11 @@
         <v>340</v>
       </c>
       <c r="C34" s="8"/>
-      <c r="D34" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>317</v>
       </c>
@@ -3744,11 +3794,11 @@
         <v>341</v>
       </c>
       <c r="C35" s="8"/>
-      <c r="D35" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>318</v>
       </c>
@@ -3757,8 +3807,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>319</v>
       </c>
@@ -3767,7 +3818,7 @@
       </c>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>320</v>
       </c>
@@ -3775,41 +3826,41 @@
         <v>344</v>
       </c>
       <c r="C38" s="5">
-        <v>60</v>
-      </c>
-      <c r="D38" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>60.62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C39" s="5">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E39" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C40" s="5">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E40" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>323</v>
       </c>
@@ -3818,7 +3869,7 @@
       </c>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>324</v>
       </c>
@@ -3829,7 +3880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>325</v>
       </c>
@@ -3840,7 +3891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>326</v>
       </c>
@@ -3849,7 +3900,7 @@
       </c>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>327</v>
       </c>
@@ -3858,35 +3909,41 @@
       </c>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C46" s="5">
-        <v>72</v>
+      <c r="C46" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="D46" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="5">
-        <v>72</v>
+      <c r="C47" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="D47" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>355</v>
       </c>
@@ -3897,10 +3954,13 @@
         <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>356</v>
       </c>
@@ -3911,10 +3971,13 @@
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>357</v>
       </c>
@@ -3925,10 +3988,13 @@
         <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>358</v>
       </c>
@@ -3939,10 +4005,13 @@
         <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>359</v>
       </c>
@@ -3951,7 +4020,7 @@
       </c>
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>360</v>
       </c>
@@ -3960,7 +4029,7 @@
       </c>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>361</v>
       </c>
@@ -3971,7 +4040,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>362</v>
       </c>
@@ -3982,10 +4051,13 @@
         <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>363</v>
       </c>
@@ -3996,7 +4068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>364</v>
       </c>
@@ -4007,10 +4079,13 @@
         <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>365</v>
       </c>
@@ -4019,7 +4094,7 @@
       </c>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>366</v>
       </c>
@@ -4028,7 +4103,7 @@
       </c>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>367</v>
       </c>
@@ -4039,7 +4114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>368</v>
       </c>
@@ -4049,11 +4124,11 @@
       <c r="C61" s="5">
         <v>88</v>
       </c>
-      <c r="D61" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>369</v>
       </c>
@@ -4062,7 +4137,7 @@
       </c>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>370</v>
       </c>
@@ -4071,14 +4146,14 @@
       </c>
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>371</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>372</v>
       </c>
@@ -4089,10 +4164,13 @@
         <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>373</v>
       </c>
@@ -4103,10 +4181,13 @@
         <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E66" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>374</v>
       </c>
@@ -4117,7 +4198,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>375</v>
       </c>
@@ -4126,7 +4207,7 @@
       </c>
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>397</v>
       </c>
@@ -4134,11 +4215,11 @@
         <v>396</v>
       </c>
       <c r="C69" s="8"/>
-      <c r="D69" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>398</v>
       </c>
@@ -4146,11 +4227,11 @@
         <v>406</v>
       </c>
       <c r="C70" s="8"/>
-      <c r="D70" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>399</v>
       </c>
@@ -4158,11 +4239,11 @@
         <v>407</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>400</v>
       </c>
@@ -4170,11 +4251,11 @@
         <v>408</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>401</v>
       </c>
@@ -4182,11 +4263,11 @@
         <v>409</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>402</v>
       </c>
@@ -4194,18 +4275,18 @@
         <v>410</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>404</v>
       </c>
@@ -4213,11 +4294,11 @@
         <v>411</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>405</v>
       </c>
@@ -4225,8 +4306,8 @@
         <v>412</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" t="s">
-        <v>415</v>
+      <c r="E77" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
